--- a/2025-03-03_o3-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Esophageal stricture.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Esophageal stricture.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of Raynaud phenomenon or color changes in the hands</t>
+          <t>Gradual onset of dysphagia affecting both liquids and solids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud phenomenon is a hallmark of CREST syndrome and its presence in HPI strongly supports a systemic process like CREST with Type 2 Achalasia, rather than a localized esophageal pathology.</t>
+          <t>Patients with Type 2 Achalasia usually report a progressive difficulty swallowing both liquids and solids, which is less typical for Esophageal stricture where dysphagia often initially affects solids.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Progressive dysphagia primarily for solid foods</t>
+          <t>Prominent history of chronic gastroesophageal reflux symptoms</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A gradual onset of dysphagia first for solids indicates a structural narrowing (i.e., esophageal stricture) rather than a motility issue seen in CREST syndrome with Type 2 Achalasia.</t>
+          <t>Longstanding reflux with heartburn is a major predisposing factor for developing esophageal strictures and is less common in CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of sclerodactyly or skin tightening on the hands</t>
+          <t>History of Raynaud phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin tightening of the digits (sclerodactyly) is characteristic of CREST syndrome and suggests an underlying connective tissue disorder that may affect esophageal motility.</t>
+          <t>Raynaud phenomenon is a vascular feature frequently associated with CREST syndrome and supports a systemic autoimmune etiology, which is absent in esophageal stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of chronic gastroesophageal reflux disease (GERD)</t>
+          <t>Acute onset of dysphagia, particularly for solids initially</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic GERD predisposes patients to peptic strictures, and its mention in the HPI strongly supports esophageal stricture over a connective tissue disorder.</t>
+          <t>Esophageal stricture often begins with difficulty swallowing solids due to a fixed luminal narrowing, contrasting with the more gradual onset seen in achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Concurrent systemic symptoms such as telangiectasias or calcinosis</t>
+          <t>Presence of sclerodactyly or skin thickening</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of other systemic manifestations (e.g., telangiectasias, calcinosis) in the HPI bolsters the likelihood of CREST syndrome over an isolated structural abnormality like an esophageal stricture.</t>
+          <t>This cutaneous manifestation is characteristic of CREST syndrome and is not a feature of Esophageal stricture, thereby strongly supporting CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of caustic ingestion or corrosive injury to the esophagus</t>
+          <t>History of caustic ingestion or prior esophageal injury</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A history of caustic injury is known to lead to strictures from scarring, making this finding much more likely with esophageal stricture.</t>
+          <t>Prior chemical injury is a well-known cause of esophageal stricture and is not associated with CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intermittent dysphagia that co-occurs with non-esophageal symptoms</t>
+          <t>Reports of telangiectasias on the skin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia combined with episodic systemic signs (typical of CREST) indicates a motility disorder tied to systemic connective tissue disease rather than a fixed obstruction.</t>
+          <t>Telangiectasias are common in CREST syndrome and would point towards a systemic connective tissue disorder rather than an isolated esophageal condition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Persistent, localized retrosternal pain associated with swallowing</t>
+          <t>Accompanying symptoms of odynophagia (painful swallowing)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pain that is specifically localized and linked to the act of swallowing suggests an obstructive process such as an esophageal stricture rather than a systemic motility disorder.</t>
+          <t>Painful swallowing may accompany an active inflammatory process in strictures which is uncommon in the smooth muscle dysfunction seen in achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dysphagia affecting both liquids and solids from early onset</t>
+          <t>Absence of dominant reflux symptoms such as heartburn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>In CREST syndrome with Type 2 Achalasia, dysphagia tends to affect liquids and solids due to motility dysfunction rather than a solid-only pattern, enhancing its discriminative value.</t>
+          <t>Lack of severe reflux symptoms suggests a motility disorder (achalasia), as opposed to Esophageal stricture which is generally secondary to severe acid reflux.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of prior endoscopic dilation procedures or interventions</t>
+          <t>Absence of systemic features such as Raynaud phenomenon or skin changes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A history of interventions aimed at relieving esophageal narrowing points to a structural abnormality, i.e., an esophageal stricture, rather than a systemic and motility-related phenomenon.</t>
+          <t>A lack of extra-esophageal symptoms that point to a systemic condition makes a localized problem (esophageal stricture) more likely.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prior diagnosis of limited cutaneous systemic sclerosis (CREST syndrome)</t>
+          <t>History of Raynaud phenomenon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A history confirming a diagnosis of limited scleroderma, often synonymous with CREST syndrome, strongly supports underlying connective tissue involvement including Type 2 Achalasia.</t>
+          <t>Raynaud phenomenon is a common manifestation in CREST syndrome and is rarely associated with esophageal stricture, making its presence highly suggestive of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Long-standing history of gastroesophageal reflux disease (GERD)</t>
+          <t>History of chronic gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GERD is a common precursor to esophageal strictures, and its long-term presence strongly favors this diagnosis over CREST syndrome.</t>
+          <t>GERD is a common precipitant of esophageal stricture due to acid-induced injury, and its presence is less associated with CREST syndrome-related motility disorders.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Documented Raynaud phenomenon</t>
+          <t>History of sclerodactyly (skin thickening and tightening of the digits)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud phenomenon is a common vasospastic feature in CREST syndrome and is rarely seen in patients with isolated esophageal stricture.</t>
+          <t>Sclerodactyly is a classic feature of systemic sclerosis (scleroderma spectrum) as seen in CREST syndrome and is not typically found in patients with esophageal stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of repeated esophageal dilation procedures</t>
+          <t>History of peptic esophageal injury</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Previous interventions such as esophageal dilations suggest a recurrent stricture process rather than a motility disorder found in CREST syndrome.</t>
+          <t>Peptic injury resulting from acid exposure is strongly linked to the development of esophageal strictures and does not correlate with CREST syndrome pathology.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sclerodactyly (thickening and tightening of the skin on the fingers) is a hallmark of CREST syndrome and aids in differentiating it from esophageal stricture.</t>
+          <t>Telangiectasia, or dilated small blood vessels, is one of the characteristic features of CREST syndrome and helps differentiate it from the organic damage seen in esophageal stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Past surgical history of fundoplication</t>
+          <t>Previous upper endoscopy demonstrating esophageal inflammation or ulceration</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A prior fundoplication indicates severe or refractory GERD leading to complications like strictures, which is uncommon in CREST syndrome.</t>
+          <t>A history of endoscopic findings such as inflammation or ulceration supports an acid-mediated process leading to stricture rather than motility dysfunction seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prior positive serologic tests for anticentromere antibodies</t>
+          <t>History of calcinosis cutis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anticentromere antibodies have high specificity for CREST syndrome and are not associated with esophageal stricture, making this a strong differentiator.</t>
+          <t>Calcinosis cutis, the deposition of calcium in the skin, is often present in patients with CREST syndrome and is not a feature of esophageal stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of caustic ingestion or injury to the esophagus</t>
+          <t>History of endoscopic dilation or surgical intervention for stricture management</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Exposure to caustic substances is a well-known cause of esophageal stricture formation, and this etiology does not align with CREST syndrome.</t>
+          <t>A past procedural history for managing strictures indicates a chronic structural abnormality consistent with esophageal stricture rather than the motility issues of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of telangiectasias</t>
+          <t>Previous diagnosis of limited cutaneous systemic sclerosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of telangiectasias further supports a diagnosis of CREST syndrome, being part of the classic constellation of symptoms.</t>
+          <t>Limited cutaneous systemic sclerosis is the underlying disease process in CREST syndrome, strongly pointing toward CREST with Type 2 Achalasia rather than an esophageal stricture.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Documented peptic ulcer disease affecting the esophagus</t>
+          <t>History of hiatal hernia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Peptic injury secondary to acid reflux is more characteristic of the pathological process leading to esophageal stricture rather than the dysmotility seen in CREST syndrome.</t>
+          <t>Hiatal hernia is frequently associated with chronic GERD and subsequent esophageal stricturing, and is not typically present in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Positive family history of autoimmune disorders including scleroderma/CREST syndrome</t>
+          <t>Family history of autoimmune disorders, particularly scleroderma or CREST spectrum diseases</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases strengthens the likelihood of CREST syndrome-related pathology and associated esophageal dysmotility (Type 2 Achalasia).</t>
+          <t>A positive family history for autoimmune connective tissue diseases strongly supports a predisposition to CREST syndrome, which is associated with Type 2 Achalasia, and is not typically seen in esophageal stricture patients.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of chronic alcohol abuse</t>
+          <t>History of chronic gastroesophageal reflux disease (GERD) in the family or social context</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chronic alcohol use is frequently associated with gastroesophageal reflux, which predisposes to esophageal strictures.</t>
+          <t>A social history indicating familial or cultural prevalence of GERD is highly associated with the development of esophageal strictures due to chronic acid exposure.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Family history of Raynaud's phenomenon</t>
+          <t>Personal history of other CREST components (e.g., Raynaud phenomena, calcinosis) in family members</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Though a clinical sign, its familial occurrence suggests a genetic predisposition toward connective tissue diseases like CREST syndrome.</t>
+          <t>Family members manifesting CREST-related features denote a genetic predisposition for systemic sclerosis variants, which markedly favors CREST syndrome with associated esophageal dysmotility.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of tobacco smoking</t>
+          <t>Family history of peptic disorders or hiatal hernia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smoking is a risk factor for GERD and subsequent esophageal injury leading to stricture formation.</t>
+          <t>These conditions are risk factors for GERD and secondary esophageal stricture, making a family history of such conditions a discriminative factor favoring esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lack of social behaviors associated with esophageal injury (e.g., absence of alcohol abuse)</t>
+          <t>Lack of lifestyle factors predisposing to acid reflux (e.g., absence of obesity, alcohol use)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Absence of high-risk behaviors such as heavy alcohol use helps differentiate autoimmune causes of esophageal dysmotility from those due to corrosive injury leading to strictures.</t>
+          <t>A social profile without common risk behaviors for gastroesophageal reflux disease (GERD)—a key risk factor for esophageal stricture—supports CREST syndrome diagnosis over stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Social history indicating caustic substance exposure or ingestion</t>
+          <t>Social habits including alcohol consumption or obesity-promoting lifestyle</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Exposure to or ingestion of corrosive agents in a social setting predisposes patients to esophageal strictures.</t>
+          <t>Alcohol use and obesity are associated with increased reflux episodes, which predispose individuals to esophageal stricture and are uncommon in the typical CREST syndrome profile.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of other connective tissue disorders</t>
+          <t>Female gender predominance in family history</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A familial pattern of connective tissue disorders supports an underlying autoimmune pathology consistent with CREST syndrome.</t>
+          <t>CREST syndrome and systemic sclerosis have a strong female predominance; a social history reflecting a family trend supports CREST syndrome rather than esophageal stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Family history lacking autoimmune diseases</t>
+          <t>History of smoking or living in environments with high tobacco exposure</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An absence of familial autoimmune history decreases the likelihood of CREST syndrome and supports an acquired injury like a stricture.</t>
+          <t>A social history involving smoking is linked with GERD and subsequent esophageal stricture development, providing discriminative power against CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of social risk factors for corrosive ingestion</t>
+          <t>Absence of occupational exposures linked to corrosive injury</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome typically do not have a history of behaviors leading to accidental caustic ingestion, which favors the autoimmune diagnosis.</t>
+          <t>A social history lacking occupational hazards (e.g., exposure to caustic agents) that predispose to esophageal injury supports a non-stricture etiology such as CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lifestyle factors promoting obesity and poor dietary habits</t>
+          <t>Occupational or social exposure to factors known to irritate the esophagus (e.g., acid mist, chemical irritants)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>These risk behaviors are associated with gastroesophageal reflux disease, a common precursor to esophageal stricture.</t>
+          <t>Exposure to environmental irritants that promote esophageal injury is more typically associated with stricture formation and is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sclerodactyly (thickening and tightening of the skin of the fingers)</t>
+          <t>Sclerodactyly (thickened, tight skin on fingers)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a hallmark physical finding in CREST syndrome, indicative of systemic scleroderma involvement and rarely seen in esophageal stricture.</t>
+          <t>This finding is highly typical for CREST syndrome, indicating skin involvement which is not seen in esophageal strictures.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Low body mass index (BMI) with evidence of cachexia</t>
+          <t>Cachexia or significant weight loss on physical exam</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Patients with esophageal stricture can lose weight due to impaired swallowing, whereas CREST syndrome typically presents with localized skin findings without marked cachexia.</t>
+          <t>Esophageal stricture often leads to significant nutritional compromise, presenting as weight loss or cachexia, unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon observed on digital examination</t>
+          <t>Telangiectasia (dilated superficial blood vessels on skin)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Color changes (white-blue-red sequence) in the fingers on exposure to cold stress are common in CREST syndrome and not associated with esophageal stricture.</t>
+          <t>Common in CREST syndrome and rarely seen in cases of esophageal stricture, it indicates vascular skin involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dry, flaccid skin with temporal wasting</t>
+          <t>Dental erosions on oral exam</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic nutritional deficiencies from esophageal stricture may manifest as overall wasting and loss of subcutaneous tissue, which is less typical in CREST syndrome.</t>
+          <t>Frequent in patients with chronic gastroesophageal reflux disease leading to strictures, but not typical in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Facial and hand telangiectasias</t>
+          <t>Raynaud's phenomenon on physical exam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dilated superficial blood vessels are a typical skin manifestation in CREST syndrome, helping differentiate it from localized esophageal pathology.</t>
+          <t>Although its diagnosis often comes with history, physical exam may reveal color changes upon cold exposure; a hallmark of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tachycardia on vital signs</t>
+          <t>Signs of poor nutritional status (e.g., temporal muscle wasting)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elevated heart rate may be a secondary finding in patients with esophageal stricture due to dehydration or malnutrition, unlike the more localized vascular changes in CREST syndrome.</t>
+          <t>Physical exam may show muscle wasting and other markers of malnutrition in esophageal stricture, contrasting with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palpable subcutaneous calcinosis</t>
+          <t>Calcinosis cutis (palpable or visible calcium deposits in the skin)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calcific deposits under the skin indicate the 'C' (Calcinosis) in CREST syndrome and are not a feature of esophageal stricture.</t>
+          <t>Calcinosis is a direct finding supportive of CREST syndrome and is not associated with esophageal strictures.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hoarse voice elicited on physical exam</t>
+          <t>Absence of cutaneous changes such as sclerodactyly and telangiectasia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Voice changes can occur secondary to chronic reflux contributing to esophageal stricture; this is not a characteristic finding of CREST syndrome.</t>
+          <t>A normal skin exam may support an esophageal stricture diagnosis as the external manifestations of CREST syndrome are missing.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Microstomia (small mouth) on physical exam</t>
+          <t>Digital pitting or ulcerations</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reduced oral aperture is consistent with CREST syndrome due to perioral skin tightening, which is not seen in esophageal stricture.</t>
+          <t>Frequently observed in advanced CREST syndrome as a consequence of chronic ischemia due to vascular changes; not seen in esophageal stricture.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of scleroderma-specific skin changes (normal skin texture)</t>
+          <t>Evidence of chronic respiratory changes (e.g., cackling, crackles) suggesting aspiration</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal skin exam without features such as sclerodactyly or telangiectasia supports esophageal stricture over CREST syndrome, where such findings are prevalent.</t>
+          <t>Patients with esophageal strictures can have aspiration due to swallowing difficulties, a finding not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High-resolution esophageal manometry showing panesophageal pressurization with intermittent peristaltic failures and elevated integrated relaxation pressure</t>
+          <t>High-resolution esophageal manometry revealing panesophageal pressurization with impaired lower esophageal sphincter (LES) relaxation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This manometric pattern is characteristic of type II achalasia, often seen in CREST syndrome, distinguishing it from structural narrowing seen in esophageal strictures.</t>
+          <t>This manometric pattern is typical for Type 2 Achalasia seen in CREST syndrome, indicating a global motility disorder rather than a focal obstructive lesion.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Endoscopic visualization of a localized fibrotic stricture with mucosal ulceration</t>
+          <t>Barium swallow demonstrating a focal, irregular narrowing with abrupt transition and proximal dilation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Direct visualization of fibrotic narrowing with ulceration strongly indicates an esophageal stricture, rather than a motility disorder.</t>
+          <t>Focal, irregular narrowing is a classic imaging finding for esophageal stricture as opposed to the smooth tapering observed in achalasia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium esophagram demonstrating a smooth, tapered 'bird-beak' appearance at the distal esophagus</t>
+          <t>Barium swallow showing a smooth, tapered 'bird-beak' narrowing at the gastroesophageal junction with diffuse esophageal dilation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The classic 'bird-beak' configuration indicates a motility disorder rather than the irregular narrowing typical of esophageal strictures.</t>
+          <t>The classic radiographic appearance supports achalasia, distinguishing it from the irregular narrowing seen with strictures.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Barium swallow demonstrating irregular luminal narrowing with mucosal irregularities</t>
+          <t>Endoscopic visualization of localized mucosal ulceration and scarring at the stricture site</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Irregular, non-uniform narrowing on imaging suggests a structural abnormality such as an esophageal stricture.</t>
+          <t>Direct endoscopic evidence of focal mucosal injury and fibrosis strongly supports the diagnosis of an esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Endoscopy revealing patent esophageal lumen without mucosal irregularity despite impaired motility</t>
+          <t>Positive serologic test for anti-centromere antibodies</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of inflammatory or fibrotic mucosal changes on endoscopy supports a motility disorder (as in CREST with type II achalasia) rather than a fixed stricture.</t>
+          <t>Anti-centromere antibodies are highly specific for CREST syndrome, thus indirectly supporting the associated esophageal dysmotility pattern of Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CT imaging showing localized esophageal wall thickening and post-inflammatory changes</t>
+          <t>Biopsy from the narrowed segment showing chronic inflammation and fibrotic changes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CT findings of wall thickening and signs of inflammation are more typical of a stricture formed secondary to chronic injury rather than a motility disorder.</t>
+          <t>Histopathologic confirmation of inflammation and fibrosis is indicative of an acquired esophageal stricture rather than a motility disorder.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal manometric response to pneumatic dilation showing improved peristaltic function</t>
+          <t>Esophageal pH monitoring demonstrating abnormal acid exposure secondary to dysmotility</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Improvement in motility parameters following pneumatic dilation is more supportive of a functional dysmotility like achalasia rather than a structural stricture.</t>
+          <t>Abnormal reflux patterns can occur in CREST-related esophageal dysmotility, contrasting with the localized obstruction of a stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Endoscopic biopsy confirming submucosal fibrosis and chronic inflammatory infiltrates</t>
+          <t>CT imaging revealing a localized lesion causing extrinsic compression or intrinsic narrowing of the esophagus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Histologic evidence of fibrosis is pathognomonic for structural damage seen in esophageal strictures and absent in pure motility disorders.</t>
+          <t>Identification of a discrete mass effect on CT is more consistent with a structural lesion like a stricture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>High-resolution manometry showing preserved lower esophageal sphincter (LES) relaxation despite overall dysmotility</t>
+          <t>CT imaging indicating diffuse esophageal wall thickening without a discrete mass</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A preserved but dysmotile LES is more typical for CREST syndrome associated dysmotility than the fixed narrowing seen with strictures.</t>
+          <t>This finding is consistent with smooth muscle involvement seen in systemic sclerosis rather than a focal lesion typical of a stricture.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ambulatory pH monitoring demonstrating severe gastroesophageal reflux disease (GERD)</t>
+          <t>Esophageal manometry showing segmental motility disturbances with preserved peristalsis in unaffected regions</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Severe GERD is a known precipitating factor for the development of esophageal strictures and is less consistent with CREST-related motility abnormalities.</t>
+          <t>The presence of localized motility dysfunction rather than a diffuse pattern supports a mechanical obstruction (stricture) rather than Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
